--- a/console/Networking/agExcel/components/autoScaling/timeComponents/modifyTime.xlsx
+++ b/console/Networking/agExcel/components/autoScaling/timeComponents/modifyTime.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lulu8/Documents/帮助文档/en/console/Networking/agExcel/components/autoScaling/timeComponents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6420379B-3E26-3F4B-8CA7-AA2359809A7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10740"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -439,9 +445,6 @@
     <t>Integer</t>
   </si>
   <si>
-    <t>XX Virtual Machine(s)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Execute once </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -451,14 +454,18 @@
   </si>
   <si>
     <t>这两行应该是一句话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX VM(s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -845,22 +852,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="29.875" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.375" customWidth="1"/>
+    <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -871,7 +878,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -882,7 +889,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -893,7 +900,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -904,7 +911,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -915,7 +922,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -926,7 +933,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -937,7 +944,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -948,7 +955,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -956,13 +963,13 @@
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -970,11 +977,11 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -985,7 +992,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -996,7 +1003,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1007,7 +1014,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1018,7 +1025,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1029,7 +1036,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1037,7 +1044,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/console/Networking/agExcel/components/autoScaling/timeComponents/modifyTime.xlsx
+++ b/console/Networking/agExcel/components/autoScaling/timeComponents/modifyTime.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lulu8/Documents/帮助文档/en/console/Networking/agExcel/components/autoScaling/timeComponents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\文件\工作-中译语通\2019年\3\console_feedback_Output-李保斗反馈-0401\需确认\需确认-确认by-GTCOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6420379B-3E26-3F4B-8CA7-AA2359809A7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20745" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <r>
       <rPr>
@@ -450,10 +449,6 @@
   </si>
   <si>
     <t>every day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这两行应该是一句话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -464,8 +459,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -852,22 +847,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.875" customWidth="1"/>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -878,7 +873,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -889,7 +884,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -900,7 +895,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -911,7 +906,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -922,7 +917,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -933,7 +928,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -944,7 +939,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -955,7 +950,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -965,11 +960,9 @@
       <c r="C9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -981,7 +974,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -992,7 +985,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1003,7 +996,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1014,7 +1007,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1025,7 +1018,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1036,7 +1029,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1044,7 +1037,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
